--- a/组件模块开发1.0.0.xlsx
+++ b/组件模块开发1.0.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9924"/>
+    <workbookView windowWidth="19104" windowHeight="7764"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
   <si>
     <t>通用组件开发</t>
   </si>
@@ -39,7 +39,7 @@
     <t>小按钮</t>
   </si>
   <si>
-    <t>/</t>
+    <t>陈崇森</t>
   </si>
   <si>
     <t>BMAngle_btn2</t>
@@ -60,6 +60,9 @@
     <t>可编辑大星星</t>
   </si>
   <si>
+    <t>唐启炜</t>
+  </si>
+  <si>
     <t>bm_rank_star2</t>
   </si>
   <si>
@@ -72,9 +75,6 @@
     <t>表单 横向 不可点击</t>
   </si>
   <si>
-    <t>唐启炜</t>
-  </si>
-  <si>
     <t>bm_cell_paragraph</t>
   </si>
   <si>
@@ -97,9 +97,6 @@
   </si>
   <si>
     <t>单选框</t>
-  </si>
-  <si>
-    <t>陈崇森</t>
   </si>
   <si>
     <t>bm_pagination</t>
@@ -119,12 +116,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,6 +152,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -162,46 +167,76 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,28 +250,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -245,7 +258,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -262,45 +289,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,6 +305,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -327,175 +323,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,13 +499,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,17 +529,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -575,25 +563,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -606,157 +585,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -770,9 +760,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1119,10 +1106,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="3"/>
@@ -1157,7 +1144,7 @@
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="22" customHeight="1" spans="1:3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1168,7 +1155,7 @@
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="22" customHeight="1" spans="1:3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1179,7 +1166,7 @@
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="22" customHeight="1" spans="1:3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1190,112 +1177,103 @@
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="22" customHeight="1" spans="1:3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="22" customHeight="1" spans="1:3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="22" customHeight="1" spans="1:3">
-      <c r="A8" s="5" t="s">
-        <v>16</v>
+      <c r="A8" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="22" customHeight="1" spans="1:3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="22" customHeight="1" spans="1:3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" ht="22" customHeight="1" spans="1:3">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" ht="22" customHeight="1" spans="1:3">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>27</v>
+      <c r="C12" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="22" customHeight="1" spans="1:3">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>27</v>
+      <c r="C13" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="22" customHeight="1" spans="1:3">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="5"/>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="5"/>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="5"/>
+      <c r="C14" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/组件模块开发1.0.0.xlsx
+++ b/组件模块开发1.0.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19104" windowHeight="7764"/>
+    <workbookView windowWidth="22943" windowHeight="10871"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
   <si>
     <t>通用组件开发</t>
   </si>
@@ -109,6 +109,18 @@
   </si>
   <si>
     <t>纵向 可输入框</t>
+  </si>
+  <si>
+    <t>bm_field_arrow1</t>
+  </si>
+  <si>
+    <t>选择框</t>
+  </si>
+  <si>
+    <t>bm_field_text1</t>
+  </si>
+  <si>
+    <t>横向输入框</t>
   </si>
 </sst>
 </file>
@@ -116,10 +128,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -152,14 +164,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -167,61 +171,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,7 +211,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,9 +240,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,8 +293,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,22 +303,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,187 +317,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,6 +508,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -510,6 +555,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,67 +603,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,10 +616,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -616,133 +628,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1106,10 +1118,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="3"/>
@@ -1272,6 +1284,28 @@
         <v>30</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>7</v>
       </c>
     </row>

--- a/组件模块开发1.0.0.xlsx
+++ b/组件模块开发1.0.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="10871"/>
+    <workbookView windowWidth="22943" windowHeight="9924"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,9 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
-  <si>
-    <t>通用组件开发</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64">
+  <si>
+    <t>通用组件开发1.0.0</t>
   </si>
   <si>
     <t>名称</t>
@@ -33,6 +33,9 @@
     <t>备注</t>
   </si>
   <si>
+    <t>btn</t>
+  </si>
+  <si>
     <t>BMAngle_btn1</t>
   </si>
   <si>
@@ -54,73 +57,157 @@
     <t>满屏大按钮</t>
   </si>
   <si>
+    <t>cell</t>
+  </si>
+  <si>
+    <t>bm_cell_arrow</t>
+  </si>
+  <si>
+    <t>表单 横向 可点击</t>
+  </si>
+  <si>
+    <t>bm_cell_text</t>
+  </si>
+  <si>
+    <t>表单 横向 不可点击</t>
+  </si>
+  <si>
+    <t>唐启炜</t>
+  </si>
+  <si>
+    <t>bm_cell_paragraph</t>
+  </si>
+  <si>
+    <t>表单 纵向 不可点击</t>
+  </si>
+  <si>
+    <t>field</t>
+  </si>
+  <si>
+    <t>bm_field_arrow1</t>
+  </si>
+  <si>
+    <t>选择框</t>
+  </si>
+  <si>
+    <t>bm_field_text1</t>
+  </si>
+  <si>
+    <t>横向输入框</t>
+  </si>
+  <si>
+    <t>bm_field_arrow2</t>
+  </si>
+  <si>
+    <t>纵向 单行 可点击</t>
+  </si>
+  <si>
+    <t>bm_field_text2</t>
+  </si>
+  <si>
+    <t>纵向 单行 可输入</t>
+  </si>
+  <si>
+    <t>bm_field_paragraph</t>
+  </si>
+  <si>
+    <t>纵向 可输入框</t>
+  </si>
+  <si>
+    <t>bm_field_btn1</t>
+  </si>
+  <si>
+    <t>带按钮输入框</t>
+  </si>
+  <si>
+    <t>bm_field_btn2</t>
+  </si>
+  <si>
+    <t>bm_field_status</t>
+  </si>
+  <si>
+    <t>横向（纵向） 带状态 输入框</t>
+  </si>
+  <si>
+    <t>choice</t>
+  </si>
+  <si>
+    <t>bm_radio</t>
+  </si>
+  <si>
+    <t>横向 单选</t>
+  </si>
+  <si>
+    <t>bm_radioList</t>
+  </si>
+  <si>
+    <t>纵向 单选框</t>
+  </si>
+  <si>
+    <t>bm_checkList</t>
+  </si>
+  <si>
+    <t>纵向 多选框</t>
+  </si>
+  <si>
+    <t>bm_selector</t>
+  </si>
+  <si>
+    <t>流式排布 标签选择</t>
+  </si>
+  <si>
+    <t>segment</t>
+  </si>
+  <si>
+    <t>bm_segment</t>
+  </si>
+  <si>
+    <t>顶部页签</t>
+  </si>
+  <si>
+    <t>bm_mark</t>
+  </si>
+  <si>
+    <t>pagination</t>
+  </si>
+  <si>
+    <t>bm_listPagination</t>
+  </si>
+  <si>
+    <t>底部加载更多</t>
+  </si>
+  <si>
+    <t>rank</t>
+  </si>
+  <si>
     <t>bm_rank_star1</t>
   </si>
   <si>
     <t>可编辑大星星</t>
   </si>
   <si>
-    <t>唐启炜</t>
-  </si>
-  <si>
     <t>bm_rank_star2</t>
   </si>
   <si>
     <t>不可编辑小星星</t>
   </si>
   <si>
-    <t>bm_cell_text</t>
-  </si>
-  <si>
-    <t>表单 横向 不可点击</t>
-  </si>
-  <si>
-    <t>bm_cell_paragraph</t>
-  </si>
-  <si>
-    <t>表单 纵向 不可点击</t>
-  </si>
-  <si>
-    <t>bm_segment</t>
-  </si>
-  <si>
-    <t>顶部页签</t>
-  </si>
-  <si>
-    <t>bm_mark</t>
-  </si>
-  <si>
-    <t>页签 角标数字</t>
-  </si>
-  <si>
-    <t>bm_radioList</t>
-  </si>
-  <si>
-    <t>单选框</t>
-  </si>
-  <si>
-    <t>bm_pagination</t>
-  </si>
-  <si>
-    <t>底部加载更多</t>
-  </si>
-  <si>
-    <t>bm_field_paragraph</t>
-  </si>
-  <si>
-    <t>纵向 可输入框</t>
-  </si>
-  <si>
-    <t>bm_field_arrow1</t>
-  </si>
-  <si>
-    <t>选择框</t>
-  </si>
-  <si>
-    <t>bm_field_text1</t>
-  </si>
-  <si>
-    <t>横向输入框</t>
+    <t>address</t>
+  </si>
+  <si>
+    <t>bm_address</t>
+  </si>
+  <si>
+    <t>地址选择组件</t>
+  </si>
+  <si>
+    <t>search</t>
+  </si>
+  <si>
+    <t>searchBox</t>
+  </si>
+  <si>
+    <t>搜索组件</t>
   </si>
 </sst>
 </file>
@@ -128,10 +215,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -143,13 +230,6 @@
     </font>
     <font>
       <sz val="14"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -164,8 +244,83 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,11 +334,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -194,121 +394,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -317,6 +404,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -329,6 +434,90 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -341,7 +530,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,13 +542,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,13 +584,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,122 +600,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -512,16 +611,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -545,42 +655,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -608,6 +692,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -616,162 +730,180 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1118,200 +1250,375 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="38.3333333333333" style="1" customWidth="1"/>
-    <col min="2" max="2" width="38.5555555555556" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.3333333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.1111111111111" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="22.6666666666667" style="2" customWidth="1"/>
+    <col min="2" max="2" width="37.3333333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.5555555555556" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.3333333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.1111111111111" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="36" customHeight="1" spans="1:4">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="1" customFormat="1" ht="36" customHeight="1" spans="1:5">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="20" customHeight="1" spans="1:4">
-      <c r="A2" s="4" t="s">
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="22" customHeight="1" spans="1:5">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="22" customHeight="1" spans="1:3">
-      <c r="A3" s="1" t="s">
+    <row r="3" s="1" customFormat="1" ht="22" customHeight="1" spans="1:5">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="22" customHeight="1" spans="1:3">
-      <c r="A4" s="1" t="s">
+      <c r="D3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="22" customHeight="1" spans="1:5">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="22" customHeight="1" spans="1:3">
-      <c r="A5" s="1" t="s">
+      <c r="C4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="D4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="22" customHeight="1" spans="1:5">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="22" customHeight="1" spans="1:3">
-      <c r="A6" s="1" t="s">
+      <c r="C5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="D5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="22" customHeight="1" spans="1:5">
+      <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="22" customHeight="1" spans="1:3">
-      <c r="A7" s="1" t="s">
+      <c r="C6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="22" customHeight="1" spans="1:5">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="22" customHeight="1" spans="1:3">
-      <c r="A8" s="1" t="s">
+      <c r="C7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="D7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="22" customHeight="1" spans="1:3">
-      <c r="A9" s="1" t="s">
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="22" customHeight="1" spans="1:5">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="22" customHeight="1" spans="1:3">
-      <c r="A10" s="1" t="s">
+      <c r="D8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="22" customHeight="1" spans="1:5">
+      <c r="A9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" ht="22" customHeight="1" spans="1:3">
-      <c r="A11" s="1" t="s">
+      <c r="C9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="D9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="22" customHeight="1" spans="1:5">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" ht="22" customHeight="1" spans="1:3">
-      <c r="A12" s="1" t="s">
+      <c r="C10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="D10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="22" customHeight="1" spans="1:5">
+      <c r="A11" s="4"/>
+      <c r="B11" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="22" customHeight="1" spans="1:3">
-      <c r="A13" s="1" t="s">
+      <c r="C11" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="22" customHeight="1" spans="1:5">
+      <c r="A12" s="4"/>
+      <c r="B12" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="22" customHeight="1" spans="1:3">
-      <c r="A14" s="1" t="s">
+      <c r="C12" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="22" customHeight="1" spans="1:5">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1" t="s">
+      <c r="C13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="D13" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="22" customHeight="1" spans="1:5">
+      <c r="A14" s="4"/>
+      <c r="B14" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1" t="s">
+      <c r="C14" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="22" customHeight="1" spans="1:5">
+      <c r="A15" s="4"/>
+      <c r="B15" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C15" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="22" customHeight="1" spans="1:5">
+      <c r="A16" s="4"/>
+      <c r="B16" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="22" customHeight="1" spans="1:5">
+      <c r="A17" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="22" customHeight="1" spans="1:5">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="22" customHeight="1" spans="1:5">
+      <c r="A19" s="4"/>
+      <c r="B19" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="22" customHeight="1" spans="1:5">
+      <c r="A20" s="4"/>
+      <c r="B20" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="22" customHeight="1" spans="1:5">
+      <c r="A21" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="22" customHeight="1" spans="1:5">
+      <c r="A22" s="4"/>
+      <c r="B22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="22" customHeight="1" spans="1:5">
+      <c r="A23" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="8"/>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="22" customHeight="1" spans="1:5">
+      <c r="A24" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="8"/>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="22" customHeight="1" spans="1:5">
+      <c r="A25" s="4"/>
+      <c r="B25" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="8"/>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="22" customHeight="1" spans="1:5">
+      <c r="A26" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+    </row>
+    <row r="27" ht="22" customHeight="1" spans="1:5">
+      <c r="A27" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+  <mergeCells count="6">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A16"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A24:A25"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
